--- a/data/trans_dic/Q25_A_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 27,0</t>
+          <t>13,72; 27,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 31,01</t>
+          <t>19,03; 31,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,86; 25,53</t>
+          <t>12,19; 25,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,48</t>
+          <t>5,92; 17,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,93; 52,29</t>
+          <t>24,46; 54,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,42; 51,62</t>
+          <t>27,56; 50,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 50,14</t>
+          <t>27,03; 50,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 30,68</t>
+          <t>11,24; 29,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 31,2</t>
+          <t>17,6; 31,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 34,42</t>
+          <t>22,72; 34,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 31,11</t>
+          <t>18,77; 29,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,01</t>
+          <t>9,13; 19,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 33,45</t>
+          <t>19,28; 32,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 32,82</t>
+          <t>21,38; 33,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 27,84</t>
+          <t>16,37; 29,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 92,27</t>
+          <t>13,49; 92,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 44,26</t>
+          <t>23,27; 45,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 53,08</t>
+          <t>33,36; 53,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 38,99</t>
+          <t>21,33; 39,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,11; 41,6</t>
+          <t>24,15; 41,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 33,53</t>
+          <t>21,8; 33,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,24; 36,74</t>
+          <t>26,13; 35,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 29,59</t>
+          <t>19,67; 29,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,56; 88,04</t>
+          <t>19,65; 87,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 35,76</t>
+          <t>20,05; 35,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,11; 37,67</t>
+          <t>21,97; 36,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 35,99</t>
+          <t>20,08; 35,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 26,14</t>
+          <t>11,07; 26,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 61,83</t>
+          <t>32,31; 63,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,36; 49,38</t>
+          <t>27,96; 48,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,34; 37,18</t>
+          <t>16,85; 36,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 37,18</t>
+          <t>17,85; 37,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,71; 40,39</t>
+          <t>24,82; 39,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>27,06; 38,59</t>
+          <t>26,74; 38,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 33,51</t>
+          <t>20,8; 33,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 26,96</t>
+          <t>15,4; 27,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 29,57</t>
+          <t>16,42; 28,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 33,39</t>
+          <t>20,8; 33,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 32,78</t>
+          <t>19,78; 32,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 23,27</t>
+          <t>12,28; 22,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 47,24</t>
+          <t>27,38; 47,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 38,0</t>
+          <t>20,36; 37,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,86; 42,54</t>
+          <t>24,46; 41,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 33,96</t>
+          <t>19,21; 33,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 32,67</t>
+          <t>22,1; 33,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 32,68</t>
+          <t>22,29; 33,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,84; 34,34</t>
+          <t>23,79; 34,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 24,52</t>
+          <t>15,79; 24,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,44</t>
+          <t>20,43; 27,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,13</t>
+          <t>23,74; 30,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,92</t>
+          <t>20,39; 26,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 70,14</t>
+          <t>14,17; 70,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,96; 44,19</t>
+          <t>31,55; 43,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,19</t>
+          <t>31,08; 41,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,9; 36,18</t>
+          <t>26,9; 36,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,3</t>
+          <t>22,19; 30,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,98</t>
+          <t>24,84; 30,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,11</t>
+          <t>27,37; 32,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,52; 29,11</t>
+          <t>23,61; 29,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 66,68</t>
+          <t>18,35; 66,72</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de fumar hace menos tiempo (3.374 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25355</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47298</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24200</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11886</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15852</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23780</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9603</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41206</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75940</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47979</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21489</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17517; 34936</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36778; 60835</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16535; 34453</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6727; 19682</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10162; 22665</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20269; 37391</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17146; 32334</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5477; 14190</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29769; 52514</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60608; 91619</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37351; 59427</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14822; 31024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69429</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46468</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>268155</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26172</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41568</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30938</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26197</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>73239</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>110997</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>77406</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>294352</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35608; 60129</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54868; 85809</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35324; 62939</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>53655; 366474</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18194; 35702</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32800; 52205</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22136; 40550</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19606; 33370</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57315; 87420</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92777; 127260</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>62864; 94342</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94119; 417582</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36102</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40272</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24685</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40477</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21632</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55201</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>91299</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61904</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44030</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26338; 47168</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38109; 63049</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29023; 50857</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15589; 37005</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12822; 25072</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29987; 51844</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13844; 29991</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13259; 28207</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42446; 68272</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75064; 107946</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47158; 76862</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33131; 58505</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37078</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54654</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51854</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31389</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32968</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31717</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44239</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32420</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70047</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86371</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>96092</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63808</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27793; 48091</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42516; 69472</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39493; 64854</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23315; 42671</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24391; 42281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22811; 42450</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32590; 55761</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24538; 43025</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57090; 87150</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70546; 105395</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>79190; 114935</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50140; 77869</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>145602</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>222203</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>162793</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>336115</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>142404</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>120588</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>87565</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>239692</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>364607</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>283381</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>423679</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>125205; 167489</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>196522; 251189</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>141854; 187411</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>119283; 591810</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>78394; 108845</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>121547; 161016</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>102930; 139379</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>73655; 102448</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>213945; 265436</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>333682; 398064</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>254596; 313914</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>215406; 783181</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>